--- a/개인작업폴더/유건희/유니티UI기획서.xlsx
+++ b/개인작업폴더/유건희/유니티UI기획서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjsgm\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\YKH\TeamHolyShit\개인작업폴더\유건희\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B892BD-5F58-4C5C-B0A3-B5778C06410D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C08E1D-AF7C-4492-A014-5EE2D7358367}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4404" yWindow="1992" windowWidth="25020" windowHeight="11976" activeTab="2" xr2:uid="{68B6787B-A419-4877-9898-811FA7C64775}"/>
+    <workbookView xWindow="855" yWindow="960" windowWidth="24945" windowHeight="12120" activeTab="2" xr2:uid="{68B6787B-A419-4877-9898-811FA7C64775}"/>
   </bookViews>
   <sheets>
     <sheet name="문서정보" sheetId="6" r:id="rId1"/>
@@ -24,21 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="111">
   <si>
     <t>목차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,14 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사운드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BGM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,10 +287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사운드 옵션 창임을 나타내는 버튼, 텍스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>행성의 난이도를 알려주고 이동하는 버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -445,6 +424,52 @@
   </si>
   <si>
     <t>UI판넬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Font Asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electronic Highway Sign SDF (TMP_FontAsset)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Font Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Anchor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stretch stretch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 0, 0, 255</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,7 +730,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -736,6 +761,42 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -751,32 +812,17 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -785,24 +831,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -814,17 +842,71 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -951,6 +1033,161 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>800672</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>343301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{098A48DE-FBD9-44F3-A17F-15D75A17BFD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="7629525"/>
+          <a:ext cx="4096322" cy="2876951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>140473</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>148112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>295274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3CA74AF-B338-47C9-9C01-F39FD6737DAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="711973" y="1376837"/>
+          <a:ext cx="2459851" cy="651987"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B1B6443-6DC1-4247-822A-A2A9461E1774}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="14020800"/>
+          <a:ext cx="4953000" cy="2695575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>30</xdr:row>
@@ -976,7 +1213,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1026,7 +1263,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1076,7 +1313,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1091,56 +1328,6 @@
         <a:xfrm>
           <a:off x="579540" y="17332496"/>
           <a:ext cx="4967820" cy="2723344"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>33300</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>14636</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>487680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="그림 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0FEC0CB-1327-44AA-B50F-9C54E26A2CC6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="597180" y="14134496"/>
-          <a:ext cx="4957800" cy="2728564"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3379,16 +3566,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>215264</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>398145</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3403,8 +3590,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1165860" y="15133320"/>
-          <a:ext cx="1203960" cy="281940"/>
+          <a:off x="2482214" y="14839950"/>
+          <a:ext cx="1384935" cy="283845"/>
         </a:xfrm>
         <a:prstGeom prst="frame">
           <a:avLst>
@@ -3527,90 +3714,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>457200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>615315</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203835</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>243840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="액자 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49BDF05-E5F6-4299-BB15-78E5F4B1F466}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3108960" y="14820900"/>
-          <a:ext cx="533400" cy="289560"/>
-        </a:xfrm>
-        <a:prstGeom prst="frame">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 1680"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>274320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>365760</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3625,8 +3738,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="883920" y="15140940"/>
-          <a:ext cx="251460" cy="251460"/>
+          <a:off x="2215515" y="14838045"/>
+          <a:ext cx="255270" cy="253365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3679,16 +3792,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>403860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3703,8 +3816,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="883920" y="15796260"/>
-          <a:ext cx="251460" cy="251460"/>
+          <a:off x="2301240" y="15885795"/>
+          <a:ext cx="255270" cy="253365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3744,85 +3857,7 @@
               <a:latin typeface="+mj-ea"/>
               <a:ea typeface="+mj-ea"/>
             </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
-            <a:latin typeface="+mj-ea"/>
-            <a:ea typeface="+mj-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>464820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="직사각형 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70C6267-1FF4-48BF-A8F7-F94E73E9645F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2842260" y="14828520"/>
-          <a:ext cx="251460" cy="251460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t>3</a:t>
+            <a:t>4</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
             <a:latin typeface="+mj-ea"/>
@@ -3987,16 +4022,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>246660</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>303810</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>184785</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>419100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4011,8 +4046,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1168680" y="15788640"/>
-          <a:ext cx="1193520" cy="274320"/>
+          <a:off x="2570760" y="15878175"/>
+          <a:ext cx="1185900" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="frame">
           <a:avLst>
@@ -4062,15 +4097,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>236220</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>466725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4085,8 +4120,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2766060" y="15102840"/>
-          <a:ext cx="1234440" cy="457200"/>
+          <a:off x="2581275" y="15238095"/>
+          <a:ext cx="466725" cy="459105"/>
         </a:xfrm>
         <a:prstGeom prst="frame">
           <a:avLst>
@@ -4136,15 +4171,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>320040</xdr:rowOff>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
+      <xdr:colOff>297180</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>354330</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4159,8 +4194,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2499360" y="15186660"/>
-          <a:ext cx="251460" cy="251460"/>
+          <a:off x="2312670" y="15331440"/>
+          <a:ext cx="251460" cy="253365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4200,7 +4235,159 @@
               <a:latin typeface="+mj-ea"/>
               <a:ea typeface="+mj-ea"/>
             </a:rPr>
-            <a:t>4</a:t>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="액자 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F4E8922-23BE-4C25-AF47-D43364CF998A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="15247620"/>
+          <a:ext cx="466725" cy="459105"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1680"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>207645</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>459105</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>344805</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="직사각형 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2FF8939-A226-419B-8AFA-7BD700F401EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3779520" y="15321915"/>
+          <a:ext cx="251460" cy="253365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>3</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
             <a:latin typeface="+mj-ea"/>
@@ -4214,7 +4401,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5838,95 +6025,95 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="2"/>
-    <col min="2" max="2" width="1.69921875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="8.75" style="2"/>
+    <col min="2" max="2" width="1.75" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="67.2" customHeight="1">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:15" ht="67.150000000000006" customHeight="1">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-    </row>
-    <row r="4" spans="2:15" ht="28.8" customHeight="1">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+    </row>
+    <row r="4" spans="2:15" ht="28.9" customHeight="1">
       <c r="B4" s="3"/>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="16" spans="2:15" ht="16.8" customHeight="1"/>
-    <row r="17" spans="2:9" ht="40.200000000000003" customHeight="1">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="16" spans="2:15" ht="16.899999999999999" customHeight="1"/>
+    <row r="17" spans="2:9" ht="40.15" customHeight="1">
       <c r="B17" s="3"/>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="20" spans="2:9" ht="23.4">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="20" spans="2:9" ht="22.5">
       <c r="B20" s="3"/>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="22" spans="2:9" ht="23.4">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="22" spans="2:9" ht="22.5">
       <c r="B22" s="3"/>
-      <c r="C22" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="24" spans="2:9" ht="23.4">
+      <c r="C22" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="24" spans="2:9" ht="22.5">
       <c r="B24" s="3"/>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="26" spans="2:9" ht="23.4">
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="26" spans="2:9" ht="22.5">
       <c r="B26" s="3"/>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5949,767 +6136,767 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6475A351-124B-4FA6-8EA2-E1E1A508E633}">
   <dimension ref="B2:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3" style="4" customWidth="1"/>
-    <col min="2" max="7" width="8.796875" style="4"/>
-    <col min="8" max="11" width="11.8984375" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="8.796875" style="4"/>
+    <col min="2" max="7" width="8.75" style="4"/>
+    <col min="8" max="11" width="11.875" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="57.6" customHeight="1">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="4" spans="2:16">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="2:16" ht="36" customHeight="1">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="2:16" ht="27.6" customHeight="1">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="16"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="2:16">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="2:16" ht="28.2" customHeight="1">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
+    <row r="15" spans="2:16" ht="28.15" customHeight="1">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="16"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="16"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
     </row>
-    <row r="20" spans="2:16" ht="25.8" customHeight="1">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
+    <row r="20" spans="2:16" ht="25.9" customHeight="1">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="16"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="16"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="2:16">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="2:16">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
     </row>
-    <row r="33" spans="2:16" ht="37.200000000000003" customHeight="1">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="15"/>
+    <row r="33" spans="2:16" ht="37.15" customHeight="1">
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="10"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="2:16">
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
     </row>
-    <row r="35" spans="2:16" ht="17.399999999999999" customHeight="1">
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
+    <row r="35" spans="2:16" ht="17.45" customHeight="1">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="2:16">
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
     </row>
     <row r="37" spans="2:16">
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
     </row>
     <row r="39" spans="2:16">
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
     </row>
     <row r="40" spans="2:16">
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
     </row>
     <row r="41" spans="2:16">
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
     </row>
     <row r="42" spans="2:16">
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
     </row>
     <row r="43" spans="2:16">
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
     </row>
     <row r="44" spans="2:16">
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
     </row>
     <row r="45" spans="2:16">
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
     </row>
     <row r="46" spans="2:16">
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
     </row>
     <row r="47" spans="2:16">
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6728,50 +6915,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BAE5E8-68B1-454D-A969-D97508E3B891}">
   <dimension ref="A2:U52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="3.69921875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="4.69921875" style="4" customWidth="1"/>
-    <col min="4" max="6" width="8.796875" style="4"/>
-    <col min="7" max="7" width="4.59765625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.69921875" style="4" customWidth="1"/>
-    <col min="9" max="11" width="8.796875" style="4"/>
-    <col min="12" max="12" width="10.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="8.796875" style="4"/>
-    <col min="14" max="14" width="11.3984375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="9.5" style="4" customWidth="1"/>
-    <col min="16" max="17" width="17.796875" style="4" customWidth="1"/>
-    <col min="18" max="20" width="12.3984375" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="8.796875" style="4"/>
+    <col min="1" max="2" width="3.75" style="41" customWidth="1"/>
+    <col min="3" max="3" width="4.75" style="41" customWidth="1"/>
+    <col min="4" max="6" width="8.75" style="41"/>
+    <col min="7" max="7" width="4.625" style="41" customWidth="1"/>
+    <col min="8" max="8" width="3.75" style="41" customWidth="1"/>
+    <col min="9" max="11" width="8.75" style="41"/>
+    <col min="12" max="12" width="10.5" style="41" customWidth="1"/>
+    <col min="13" max="13" width="8.75" style="41"/>
+    <col min="14" max="14" width="11.375" style="41" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="41" customWidth="1"/>
+    <col min="16" max="17" width="17.75" style="41" customWidth="1"/>
+    <col min="18" max="20" width="12.375" style="41" customWidth="1"/>
+    <col min="21" max="16384" width="8.75" style="41"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="40.200000000000003" customHeight="1">
-      <c r="C2" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-    </row>
-    <row r="3" spans="1:21" s="8" customFormat="1" ht="7.2" customHeight="1">
+    <row r="2" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C2" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+    </row>
+    <row r="3" spans="1:20" s="42" customFormat="1" ht="7.15" customHeight="1">
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -6789,33 +6976,33 @@
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
     </row>
-    <row r="4" spans="1:21" ht="27" customHeight="1">
-      <c r="A4" s="6">
+    <row r="4" spans="1:20" ht="27" customHeight="1">
+      <c r="A4" s="43">
         <v>5</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-    </row>
-    <row r="5" spans="1:21" s="8" customFormat="1" ht="7.2" customHeight="1">
+      <c r="B4" s="43"/>
+      <c r="C4" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+    </row>
+    <row r="5" spans="1:20" s="42" customFormat="1" ht="7.15" customHeight="1">
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -6833,169 +7020,2329 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
     </row>
-    <row r="6" spans="1:21" ht="40.049999999999997" customHeight="1">
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="32" t="s">
+    <row r="6" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C6" s="46"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="32" t="s">
+      <c r="J6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="32" t="s">
+      <c r="K6" s="49"/>
+      <c r="L6" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="49"/>
+    </row>
+    <row r="7" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C7" s="46"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="51">
+        <v>1</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="53"/>
+      <c r="L7" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="53"/>
+    </row>
+    <row r="8" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C8" s="46"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="51">
+        <v>2</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" s="53"/>
+      <c r="L8" s="52">
+        <v>503</v>
+      </c>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="53"/>
+    </row>
+    <row r="9" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C9" s="46"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="51">
+        <v>3</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="53"/>
+      <c r="L9" s="52">
+        <v>272</v>
+      </c>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="53"/>
+    </row>
+    <row r="10" spans="1:20" ht="27" customHeight="1">
+      <c r="A10" s="43">
+        <v>5</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+    </row>
+    <row r="11" spans="1:20" s="42" customFormat="1" ht="7.15" customHeight="1">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C12" s="46"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="49"/>
+      <c r="L12" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="49"/>
+    </row>
+    <row r="13" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C13" s="46"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="51">
+        <v>1</v>
+      </c>
+      <c r="J13" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="53"/>
+      <c r="L13" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="53"/>
+    </row>
+    <row r="14" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C14" s="46"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="51">
+        <v>2</v>
+      </c>
+      <c r="J14" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="53"/>
+      <c r="L14" s="52">
+        <v>50</v>
+      </c>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="53"/>
+    </row>
+    <row r="15" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C15" s="46"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="51">
+        <v>3</v>
+      </c>
+      <c r="J15" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15" s="53"/>
+      <c r="L15" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="53"/>
+    </row>
+    <row r="16" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C16" s="46"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="51">
+        <v>4</v>
+      </c>
+      <c r="J16" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="53"/>
+      <c r="L16" s="52">
+        <v>360</v>
+      </c>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="53"/>
+    </row>
+    <row r="17" spans="1:21" ht="40.15" customHeight="1">
+      <c r="C17" s="46"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="51">
+        <v>5</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="53"/>
+      <c r="L17" s="52">
+        <v>60</v>
+      </c>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="53"/>
+    </row>
+    <row r="18" spans="1:21" ht="40.15" customHeight="1">
+      <c r="C18" s="46"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="51">
+        <v>6</v>
+      </c>
+      <c r="J18" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="53"/>
+      <c r="L18" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="53"/>
+    </row>
+    <row r="19" spans="1:21" ht="27" customHeight="1">
+      <c r="A19" s="43">
+        <v>5</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+    </row>
+    <row r="20" spans="1:21" s="42" customFormat="1" ht="7.15" customHeight="1">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+    </row>
+    <row r="21" spans="1:21" ht="40.15" customHeight="1">
+      <c r="C21" s="46"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+    </row>
+    <row r="22" spans="1:21" ht="40.15" customHeight="1">
+      <c r="C22" s="46"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+    </row>
+    <row r="23" spans="1:21" ht="40.15" customHeight="1">
+      <c r="C23" s="46"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+    </row>
+    <row r="24" spans="1:21" ht="40.15" customHeight="1">
+      <c r="C24" s="46"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+    </row>
+    <row r="25" spans="1:21" ht="40.15" customHeight="1">
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+    </row>
+    <row r="26" spans="1:21" ht="40.15" customHeight="1">
+      <c r="B26" s="55"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="U26" s="54"/>
+    </row>
+    <row r="27" spans="1:21" ht="40.15" customHeight="1">
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="U27" s="54"/>
+    </row>
+    <row r="28" spans="1:21" ht="40.15" customHeight="1">
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+    </row>
+    <row r="29" spans="1:21" ht="40.15" customHeight="1">
+      <c r="B29" s="55"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="U29" s="54"/>
+    </row>
+    <row r="30" spans="1:21" ht="40.15" customHeight="1">
+      <c r="B30" s="55"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="U30" s="54"/>
+    </row>
+    <row r="31" spans="1:21" ht="40.15" customHeight="1">
+      <c r="B31" s="55"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+    </row>
+    <row r="32" spans="1:21" ht="19.149999999999999" customHeight="1">
+      <c r="B32" s="55"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="U32" s="54"/>
+    </row>
+    <row r="33" spans="2:21" ht="27" customHeight="1">
+      <c r="B33" s="55"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="U33" s="54"/>
+    </row>
+    <row r="34" spans="2:21" ht="19.149999999999999" customHeight="1">
+      <c r="B34" s="55"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="U34" s="54"/>
+    </row>
+    <row r="35" spans="2:21" ht="17.25">
+      <c r="B35" s="55"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="U35" s="54"/>
+    </row>
+    <row r="36" spans="2:21">
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+    </row>
+    <row r="39" spans="2:21">
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="T39" s="54"/>
+    </row>
+    <row r="40" spans="2:21" ht="17.45" customHeight="1"/>
+    <row r="41" spans="2:21" ht="17.45" customHeight="1"/>
+    <row r="42" spans="2:21" ht="17.45" customHeight="1"/>
+    <row r="43" spans="2:21" ht="17.45" customHeight="1"/>
+    <row r="44" spans="2:21" ht="17.45" customHeight="1">
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="T44" s="54"/>
+    </row>
+    <row r="47" spans="2:21">
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+      <c r="T47" s="54"/>
+    </row>
+    <row r="48" spans="2:21" ht="17.45" customHeight="1"/>
+    <row r="52" spans="13:20">
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
+      <c r="T52" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="C19:T19"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="C2:T2"/>
+    <mergeCell ref="C4:T4"/>
+    <mergeCell ref="C10:T10"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="L18:P18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED03EAE0-4D46-41F6-A1C2-CF15E5101E5B}">
+  <dimension ref="A2:T52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="2" width="3.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="4.75" style="4" customWidth="1"/>
+    <col min="4" max="6" width="8.75" style="4"/>
+    <col min="7" max="7" width="4.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.75" style="4" customWidth="1"/>
+    <col min="9" max="12" width="8.75" style="4"/>
+    <col min="13" max="13" width="11.375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="4" customWidth="1"/>
+    <col min="15" max="16" width="18.25" style="4" customWidth="1"/>
+    <col min="17" max="19" width="12.375" style="4" customWidth="1"/>
+    <col min="20" max="16384" width="8.75" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C2" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+    </row>
+    <row r="3" spans="1:20" s="8" customFormat="1" ht="7.15" customHeight="1">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:20" ht="27" customHeight="1">
+      <c r="A4" s="6">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+    </row>
+    <row r="5" spans="1:20" s="8" customFormat="1" ht="7.15" customHeight="1">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+    </row>
+    <row r="6" spans="1:20" ht="17.25">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="33" t="s">
+      <c r="O6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="33" t="s">
+      <c r="P6" s="35"/>
+      <c r="Q6" s="34" t="s">
         <v>12</v>
       </c>
+      <c r="R6" s="36"/>
       <c r="S6" s="35"/>
-      <c r="T6" s="34"/>
-    </row>
-    <row r="7" spans="1:21" ht="40.049999999999997" customHeight="1">
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="31">
+    </row>
+    <row r="7" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="16">
         <v>1</v>
       </c>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="26"/>
-    </row>
-    <row r="8" spans="1:21" ht="40.049999999999997" customHeight="1">
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="31">
+      <c r="M7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" s="32"/>
+      <c r="S7" s="33"/>
+    </row>
+    <row r="8" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="16">
         <v>2</v>
       </c>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="26"/>
-    </row>
-    <row r="9" spans="1:21" ht="40.049999999999997" customHeight="1">
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="31">
+      <c r="M8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" s="32"/>
+      <c r="S8" s="33"/>
+    </row>
+    <row r="9" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="16">
         <v>3</v>
       </c>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="26"/>
-    </row>
-    <row r="10" spans="1:21" ht="40.049999999999997" customHeight="1">
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="31">
+      <c r="M9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="32"/>
+      <c r="S9" s="33"/>
+    </row>
+    <row r="10" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:20" ht="40.15" customHeight="1">
+      <c r="B11" s="1"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:20" ht="27" customHeight="1">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+    </row>
+    <row r="13" spans="1:20" s="8" customFormat="1" ht="7.15" customHeight="1">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:20" ht="17.25">
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="36"/>
+      <c r="S14" s="35"/>
+    </row>
+    <row r="15" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="16">
+        <v>1</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="32"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="16">
+        <v>2</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" s="32"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="16">
+        <v>3</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" s="32"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="7"/>
+    </row>
+    <row r="18" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="16">
         <v>4</v>
       </c>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="26"/>
+      <c r="M18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="R18" s="32"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="7"/>
+    </row>
+    <row r="19" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="16">
+        <v>5</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="R19" s="32"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="7"/>
+    </row>
+    <row r="20" spans="1:20" ht="7.15" customHeight="1">
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="7"/>
+    </row>
+    <row r="21" spans="1:20" ht="27" customHeight="1">
+      <c r="A21" s="6">
+        <v>5</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+    </row>
+    <row r="22" spans="1:20" s="8" customFormat="1" ht="7.15" customHeight="1">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="1:20" ht="17.25">
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="R23" s="36"/>
+      <c r="S23" s="35"/>
+    </row>
+    <row r="24" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="16">
+        <v>1</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="R24" s="32"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="7"/>
+    </row>
+    <row r="25" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="16">
+        <v>2</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="R25" s="32"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="7"/>
+    </row>
+    <row r="26" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="16">
+        <v>3</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="R26" s="32"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="7"/>
+    </row>
+    <row r="27" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="7"/>
+    </row>
+    <row r="28" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="7"/>
+    </row>
+    <row r="29" spans="1:20" ht="27" customHeight="1">
+      <c r="A29" s="6">
+        <v>5</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+    </row>
+    <row r="30" spans="1:20" s="8" customFormat="1" ht="7.15" customHeight="1">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+    </row>
+    <row r="31" spans="1:20" ht="17.25">
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O31" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="R31" s="36"/>
+      <c r="S31" s="35"/>
+    </row>
+    <row r="32" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="16">
+        <v>1</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O32" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="R32" s="32"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="7"/>
+    </row>
+    <row r="33" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="16">
+        <v>2</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="R33" s="32"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="7"/>
+    </row>
+    <row r="34" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="16">
+        <v>3</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="R34" s="32"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="7"/>
+    </row>
+    <row r="35" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="7"/>
+    </row>
+    <row r="36" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="7"/>
+    </row>
+    <row r="37" spans="1:20" ht="27" customHeight="1">
+      <c r="A37" s="6">
+        <v>5</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+    </row>
+    <row r="38" spans="1:20" s="8" customFormat="1" ht="7.15" customHeight="1">
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+    </row>
+    <row r="39" spans="1:20" ht="17.25">
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M39" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N39" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O39" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="R39" s="36"/>
+      <c r="S39" s="35"/>
+    </row>
+    <row r="40" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="16">
+        <v>1</v>
+      </c>
+      <c r="M40" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N40" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O40" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="R40" s="32"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="7"/>
+    </row>
+    <row r="41" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="16">
+        <v>2</v>
+      </c>
+      <c r="M41" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N41" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="R41" s="32"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="7"/>
+    </row>
+    <row r="42" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="16">
+        <v>3</v>
+      </c>
+      <c r="M42" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="N42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="R42" s="32"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="7"/>
+    </row>
+    <row r="43" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="16">
+        <v>4</v>
+      </c>
+      <c r="M43" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N43" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="R43" s="32"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="7"/>
+    </row>
+    <row r="44" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="7"/>
+    </row>
+    <row r="45" spans="1:20" ht="27" customHeight="1">
+      <c r="A45" s="6">
+        <v>5</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+      <c r="S45" s="38"/>
+    </row>
+    <row r="46" spans="1:20" s="8" customFormat="1" ht="7.15" customHeight="1">
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+    </row>
+    <row r="47" spans="1:20" ht="17.25">
+      <c r="C47" s="13"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M47" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N47" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O47" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="R47" s="36"/>
+      <c r="S47" s="35"/>
+    </row>
+    <row r="48" spans="1:20" ht="40.15" customHeight="1">
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="16">
+        <v>1</v>
+      </c>
+      <c r="M48" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O48" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="R48" s="32"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="7"/>
+    </row>
+    <row r="49" spans="3:20" ht="40.15" customHeight="1">
+      <c r="C49" s="13"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="7"/>
+    </row>
+    <row r="50" spans="3:20" ht="40.15" customHeight="1">
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="7"/>
+    </row>
+    <row r="51" spans="3:20" ht="40.15" customHeight="1">
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="7"/>
+    </row>
+    <row r="52" spans="3:20" ht="40.15" customHeight="1">
+      <c r="C52" s="13"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="C4:S4"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="C12:S12"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="C21:S21"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="C29:S29"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="C37:S37"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="C45:S45"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:S42"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2805FDE7-10C1-4E76-B885-566C89DD844A}">
+  <dimension ref="A2:U52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="2" width="3.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="4.75" style="4" customWidth="1"/>
+    <col min="4" max="6" width="8.75" style="4"/>
+    <col min="7" max="7" width="4.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.75" style="4" customWidth="1"/>
+    <col min="9" max="11" width="8.75" style="4"/>
+    <col min="12" max="12" width="10.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="8.75" style="4"/>
+    <col min="14" max="14" width="11.375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="4" customWidth="1"/>
+    <col min="16" max="17" width="17.75" style="4" customWidth="1"/>
+    <col min="18" max="20" width="12.375" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="8.75" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:21" ht="40.15" customHeight="1">
+      <c r="C2" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+    </row>
+    <row r="3" spans="1:21" s="8" customFormat="1" ht="7.15" customHeight="1">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+    </row>
+    <row r="4" spans="1:21" ht="27" customHeight="1">
+      <c r="A4" s="6">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+    </row>
+    <row r="5" spans="1:21" s="8" customFormat="1" ht="7.15" customHeight="1">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+    </row>
+    <row r="6" spans="1:21" ht="40.15" customHeight="1">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="36"/>
+      <c r="T6" s="35"/>
+    </row>
+    <row r="7" spans="1:21" ht="40.15" customHeight="1">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="16">
+        <v>1</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="S7" s="32"/>
+      <c r="T7" s="33"/>
+    </row>
+    <row r="8" spans="1:21" ht="40.15" customHeight="1">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="16">
+        <v>2</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="S8" s="32"/>
+      <c r="T8" s="33"/>
+    </row>
+    <row r="9" spans="1:21" ht="40.15" customHeight="1">
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="16">
+        <v>3</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="S9" s="32"/>
+      <c r="T9" s="33"/>
+    </row>
+    <row r="10" spans="1:21" ht="40.15" customHeight="1">
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="16">
+        <v>4</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="S10" s="32"/>
+      <c r="T10" s="33"/>
       <c r="U10" s="7"/>
     </row>
-    <row r="11" spans="1:21" ht="40.049999999999997" customHeight="1">
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="31">
+    <row r="11" spans="1:21" ht="40.15" customHeight="1">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="16">
         <v>5</v>
       </c>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="26"/>
+      <c r="N11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="S11" s="32"/>
+      <c r="T11" s="33"/>
       <c r="U11" s="7"/>
     </row>
-    <row r="12" spans="1:21" ht="40.049999999999997" customHeight="1">
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
+    <row r="12" spans="1:21" ht="40.15" customHeight="1">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
       <c r="U12" s="7"/>
     </row>
     <row r="13" spans="1:21" ht="27" customHeight="1">
@@ -7003,28 +9350,28 @@
         <v>5</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-    </row>
-    <row r="14" spans="1:21" s="8" customFormat="1" ht="7.2" customHeight="1">
+      <c r="C13" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+    </row>
+    <row r="14" spans="1:21" s="8" customFormat="1" ht="7.15" customHeight="1">
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -7042,179 +9389,203 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
     </row>
-    <row r="15" spans="1:21" ht="40.049999999999997" customHeight="1">
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="32" t="s">
+    <row r="15" spans="1:21" ht="40.15" customHeight="1">
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N15" s="32" t="s">
+      <c r="N15" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="32" t="s">
+      <c r="O15" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="33" t="s">
+      <c r="P15" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="33" t="s">
+      <c r="Q15" s="35"/>
+      <c r="R15" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="S15" s="35"/>
-      <c r="T15" s="34"/>
-    </row>
-    <row r="16" spans="1:21" ht="40.049999999999997" customHeight="1">
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="31">
+      <c r="S15" s="36"/>
+      <c r="T15" s="35"/>
+    </row>
+    <row r="16" spans="1:21" ht="40.15" customHeight="1">
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="16">
         <v>1</v>
       </c>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="26"/>
-    </row>
-    <row r="17" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="31">
+      <c r="N16" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="S16" s="32"/>
+      <c r="T16" s="33"/>
+    </row>
+    <row r="17" spans="2:21" ht="40.15" customHeight="1">
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="16">
         <v>2</v>
       </c>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="26"/>
-    </row>
-    <row r="18" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="31">
+      <c r="N17" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="S17" s="32"/>
+      <c r="T17" s="33"/>
+    </row>
+    <row r="18" spans="2:21" ht="40.15" customHeight="1">
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="16">
         <v>3</v>
       </c>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="26"/>
-    </row>
-    <row r="19" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
+      <c r="N18" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="S18" s="32"/>
+      <c r="T18" s="33"/>
+    </row>
+    <row r="19" spans="2:21" ht="40.15" customHeight="1">
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
       <c r="S19" s="5"/>
       <c r="T19" s="1"/>
       <c r="U19" s="7"/>
     </row>
-    <row r="20" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+    <row r="20" spans="2:21" ht="40.15" customHeight="1">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
       <c r="S20" s="5"/>
       <c r="T20" s="1"/>
       <c r="U20" s="7"/>
     </row>
-    <row r="21" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
+    <row r="21" spans="2:21" ht="40.15" customHeight="1">
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
       <c r="U21" s="7"/>
     </row>
-    <row r="22" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
+    <row r="22" spans="2:21" ht="40.15" customHeight="1">
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
@@ -7225,1020 +9596,109 @@
       <c r="T22" s="8"/>
       <c r="U22" s="7"/>
     </row>
-    <row r="23" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="B23" s="37"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
+    <row r="23" spans="2:21" ht="40.15" customHeight="1">
+      <c r="B23" s="19"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
       <c r="S23" s="5"/>
       <c r="T23" s="1"/>
       <c r="U23" s="7"/>
     </row>
-    <row r="24" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
+    <row r="24" spans="2:21" ht="40.15" customHeight="1">
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
       <c r="U24" s="7"/>
     </row>
-    <row r="25" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
+    <row r="25" spans="2:21" ht="40.15" customHeight="1">
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
       <c r="U25" s="7"/>
     </row>
-    <row r="26" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="B26" s="37"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
+    <row r="26" spans="2:21" ht="40.15" customHeight="1">
+      <c r="B26" s="19"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
       <c r="U26" s="7"/>
     </row>
-    <row r="27" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
+    <row r="27" spans="2:21" ht="40.15" customHeight="1">
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
       <c r="U27" s="7"/>
     </row>
-    <row r="28" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
+    <row r="28" spans="2:21" ht="40.15" customHeight="1">
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
       <c r="S28" s="5"/>
       <c r="T28" s="1"/>
       <c r="U28" s="7"/>
     </row>
-    <row r="29" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="B29" s="37"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="U29" s="7"/>
-    </row>
-    <row r="30" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="B30" s="37"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="U30" s="7"/>
-    </row>
-    <row r="31" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="B31" s="37"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="7"/>
-    </row>
-    <row r="32" spans="2:21" ht="19.2" customHeight="1">
-      <c r="B32" s="37"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="U32" s="7"/>
-    </row>
-    <row r="33" spans="2:21" ht="27" customHeight="1">
-      <c r="B33" s="37"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="U33" s="7"/>
-    </row>
-    <row r="34" spans="2:21" ht="19.2" customHeight="1">
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="U34" s="7"/>
-    </row>
-    <row r="35" spans="2:21" ht="19.2">
-      <c r="B35" s="37"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="U35" s="7"/>
-    </row>
-    <row r="36" spans="2:21">
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="7"/>
-    </row>
-    <row r="39" spans="2:21">
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="1"/>
-    </row>
-    <row r="40" spans="2:21" ht="17.399999999999999" customHeight="1"/>
-    <row r="41" spans="2:21" ht="17.399999999999999" customHeight="1"/>
-    <row r="42" spans="2:21" ht="17.399999999999999" customHeight="1"/>
-    <row r="43" spans="2:21" ht="17.399999999999999" customHeight="1"/>
-    <row r="44" spans="2:21" ht="17.399999999999999" customHeight="1">
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="1"/>
-    </row>
-    <row r="47" spans="2:21">
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="1"/>
-    </row>
-    <row r="48" spans="2:21" ht="17.399999999999999" customHeight="1"/>
-    <row r="52" spans="13:20">
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="C13:T13"/>
-    <mergeCell ref="C2:T2"/>
-    <mergeCell ref="C4:T4"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED03EAE0-4D46-41F6-A1C2-CF15E5101E5B}">
-  <dimension ref="A2:T52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="2" width="3.69921875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="4.69921875" style="4" customWidth="1"/>
-    <col min="4" max="6" width="8.796875" style="4"/>
-    <col min="7" max="7" width="4.59765625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.69921875" style="4" customWidth="1"/>
-    <col min="9" max="12" width="8.796875" style="4"/>
-    <col min="13" max="13" width="11.3984375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="4" customWidth="1"/>
-    <col min="15" max="16" width="17.796875" style="4" customWidth="1"/>
-    <col min="17" max="19" width="12.3984375" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="8.796875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:20" ht="40.200000000000003" customHeight="1">
-      <c r="C2" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-    </row>
-    <row r="3" spans="1:20" s="8" customFormat="1" ht="7.2" customHeight="1">
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-    </row>
-    <row r="4" spans="1:20" ht="27" customHeight="1">
-      <c r="A4" s="6">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-    </row>
-    <row r="5" spans="1:20" s="8" customFormat="1" ht="7.2" customHeight="1">
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-    </row>
-    <row r="6" spans="1:20" ht="19.2">
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="35"/>
-      <c r="S6" s="34"/>
-    </row>
-    <row r="7" spans="1:20" ht="40.049999999999997" customHeight="1">
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="31">
-        <v>1</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="R7" s="25"/>
-      <c r="S7" s="26"/>
-    </row>
-    <row r="8" spans="1:20" ht="40.049999999999997" customHeight="1">
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="31">
-        <v>2</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" s="25"/>
-      <c r="S8" s="26"/>
-    </row>
-    <row r="9" spans="1:20" ht="40.049999999999997" customHeight="1">
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="31">
-        <v>3</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="R9" s="25"/>
-      <c r="S9" s="26"/>
-    </row>
-    <row r="10" spans="1:20" ht="40.049999999999997" customHeight="1">
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:20" ht="40.049999999999997" customHeight="1">
-      <c r="B11" s="1"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:20" ht="27" customHeight="1">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-    </row>
-    <row r="13" spans="1:20" s="8" customFormat="1" ht="7.2" customHeight="1">
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-    </row>
-    <row r="14" spans="1:20" ht="19.2">
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="N14" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="R14" s="35"/>
-      <c r="S14" s="34"/>
-    </row>
-    <row r="15" spans="1:20" ht="40.049999999999997" customHeight="1">
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="31">
-        <v>1</v>
-      </c>
-      <c r="M15" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="R15" s="25"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:20" ht="40.049999999999997" customHeight="1">
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="31">
-        <v>2</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="R16" s="25"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="40.049999999999997" customHeight="1">
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="31">
-        <v>3</v>
-      </c>
-      <c r="M17" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="R17" s="25"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="18" spans="1:20" ht="40.049999999999997" customHeight="1">
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="31">
-        <v>4</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="R18" s="25"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="7"/>
-    </row>
-    <row r="19" spans="1:20" ht="40.049999999999997" customHeight="1">
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="31">
-        <v>5</v>
-      </c>
-      <c r="M19" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="R19" s="25"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="7"/>
-    </row>
-    <row r="20" spans="1:20" ht="7.2" customHeight="1">
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="7"/>
-    </row>
-    <row r="21" spans="1:20" ht="27" customHeight="1">
-      <c r="A21" s="6">
-        <v>5</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-    </row>
-    <row r="22" spans="1:20" s="8" customFormat="1" ht="7.2" customHeight="1">
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-    </row>
-    <row r="23" spans="1:20" ht="19.2">
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="N23" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="O23" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="R23" s="35"/>
-      <c r="S23" s="34"/>
-    </row>
-    <row r="24" spans="1:20" ht="40.049999999999997" customHeight="1">
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="31">
-        <v>1</v>
-      </c>
-      <c r="M24" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="N24" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="O24" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="R24" s="25"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="7"/>
-    </row>
-    <row r="25" spans="1:20" ht="40.049999999999997" customHeight="1">
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="31">
-        <v>2</v>
-      </c>
-      <c r="M25" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="N25" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="O25" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="R25" s="25"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="7"/>
-    </row>
-    <row r="26" spans="1:20" ht="40.049999999999997" customHeight="1">
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="31">
-        <v>3</v>
-      </c>
-      <c r="M26" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="N26" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="O26" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="R26" s="25"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="7"/>
-    </row>
-    <row r="27" spans="1:20" ht="40.049999999999997" customHeight="1">
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="7"/>
-    </row>
-    <row r="28" spans="1:20" ht="40.049999999999997" customHeight="1">
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="7"/>
-    </row>
-    <row r="29" spans="1:20" ht="27" customHeight="1">
-      <c r="A29" s="6">
-        <v>5</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="20" t="s">
-        <v>47</v>
-      </c>
+    <row r="29" spans="2:21" ht="40.15" customHeight="1">
+      <c r="B29" s="19"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
@@ -8248,1512 +9708,169 @@
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-    </row>
-    <row r="30" spans="1:20" s="8" customFormat="1" ht="7.2" customHeight="1">
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-    </row>
-    <row r="31" spans="1:20" ht="19.2">
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="N31" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="O31" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="R31" s="35"/>
-      <c r="S31" s="34"/>
-    </row>
-    <row r="32" spans="1:20" ht="40.049999999999997" customHeight="1">
-      <c r="C32" s="22"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="31">
-        <v>1</v>
-      </c>
-      <c r="M32" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="N32" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="O32" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="R32" s="25"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="7"/>
-    </row>
-    <row r="33" spans="1:20" ht="40.049999999999997" customHeight="1">
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="31">
-        <v>2</v>
-      </c>
-      <c r="M33" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="N33" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="O33" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="R33" s="25"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="7"/>
-    </row>
-    <row r="34" spans="1:20" ht="40.049999999999997" customHeight="1">
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="31">
-        <v>3</v>
-      </c>
-      <c r="M34" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="N34" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="O34" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="R34" s="25"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="7"/>
-    </row>
-    <row r="35" spans="1:20" ht="40.049999999999997" customHeight="1">
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="7"/>
-    </row>
-    <row r="36" spans="1:20" ht="40.049999999999997" customHeight="1">
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="7"/>
-    </row>
-    <row r="37" spans="1:20" ht="27" customHeight="1">
-      <c r="A37" s="6">
-        <v>5</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-    </row>
-    <row r="38" spans="1:20" s="8" customFormat="1" ht="7.2" customHeight="1">
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-    </row>
-    <row r="39" spans="1:20" ht="19.2">
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="M39" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="N39" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="O39" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="R39" s="35"/>
-      <c r="S39" s="34"/>
-    </row>
-    <row r="40" spans="1:20" ht="40.049999999999997" customHeight="1">
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="31">
-        <v>1</v>
-      </c>
-      <c r="M40" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="N40" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="O40" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="R40" s="25"/>
-      <c r="S40" s="26"/>
-      <c r="T40" s="7"/>
-    </row>
-    <row r="41" spans="1:20" ht="40.049999999999997" customHeight="1">
-      <c r="C41" s="22"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="31">
-        <v>2</v>
-      </c>
-      <c r="M41" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="N41" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="O41" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="R41" s="25"/>
-      <c r="S41" s="26"/>
-      <c r="T41" s="7"/>
-    </row>
-    <row r="42" spans="1:20" ht="40.049999999999997" customHeight="1">
-      <c r="C42" s="22"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="31">
-        <v>3</v>
-      </c>
-      <c r="M42" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="N42" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="O42" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="R42" s="25"/>
-      <c r="S42" s="26"/>
-      <c r="T42" s="7"/>
-    </row>
-    <row r="43" spans="1:20" ht="40.049999999999997" customHeight="1">
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="31">
-        <v>4</v>
-      </c>
-      <c r="M43" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="N43" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="O43" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="R43" s="25"/>
-      <c r="S43" s="26"/>
-      <c r="T43" s="7"/>
-    </row>
-    <row r="44" spans="1:20" ht="40.049999999999997" customHeight="1">
-      <c r="C44" s="22"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="31">
-        <v>4</v>
-      </c>
-      <c r="M44" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="N44" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="O44" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="R44" s="25"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="7"/>
-    </row>
-    <row r="45" spans="1:20" ht="27" customHeight="1">
-      <c r="A45" s="6">
-        <v>5</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="21"/>
-    </row>
-    <row r="46" spans="1:20" s="8" customFormat="1" ht="7.2" customHeight="1">
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-    </row>
-    <row r="47" spans="1:20" ht="19.2">
-      <c r="C47" s="22"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="M47" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="N47" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="O47" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="R47" s="35"/>
-      <c r="S47" s="34"/>
-    </row>
-    <row r="48" spans="1:20" ht="40.049999999999997" customHeight="1">
-      <c r="C48" s="22"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="31">
-        <v>1</v>
-      </c>
-      <c r="M48" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="N48" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="O48" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="R48" s="25"/>
-      <c r="S48" s="26"/>
-      <c r="T48" s="7"/>
-    </row>
-    <row r="49" spans="3:20" ht="40.049999999999997" customHeight="1">
-      <c r="C49" s="22"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="7"/>
-    </row>
-    <row r="50" spans="3:20" ht="40.049999999999997" customHeight="1">
-      <c r="C50" s="22"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="7"/>
-    </row>
-    <row r="51" spans="3:20" ht="40.049999999999997" customHeight="1">
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="7"/>
-    </row>
-    <row r="52" spans="3:20" ht="40.049999999999997" customHeight="1">
-      <c r="C52" s="22"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="C45:S45"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="C37:S37"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="C29:S29"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="C21:S21"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="C4:S4"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="C12:S12"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="O7:P7"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2805FDE7-10C1-4E76-B885-566C89DD844A}">
-  <dimension ref="A2:U52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="2" width="3.69921875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="4.69921875" style="4" customWidth="1"/>
-    <col min="4" max="6" width="8.796875" style="4"/>
-    <col min="7" max="7" width="4.59765625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.69921875" style="4" customWidth="1"/>
-    <col min="9" max="11" width="8.796875" style="4"/>
-    <col min="12" max="12" width="10.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="8.796875" style="4"/>
-    <col min="14" max="14" width="11.3984375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="9.5" style="4" customWidth="1"/>
-    <col min="16" max="17" width="17.796875" style="4" customWidth="1"/>
-    <col min="18" max="20" width="12.3984375" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="8.796875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:21" ht="40.200000000000003" customHeight="1">
-      <c r="C2" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-    </row>
-    <row r="3" spans="1:21" s="8" customFormat="1" ht="7.2" customHeight="1">
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-    </row>
-    <row r="4" spans="1:21" ht="27" customHeight="1">
-      <c r="A4" s="6">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-    </row>
-    <row r="5" spans="1:21" s="8" customFormat="1" ht="7.2" customHeight="1">
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-    </row>
-    <row r="6" spans="1:21" ht="40.049999999999997" customHeight="1">
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="35"/>
-      <c r="T6" s="34"/>
-    </row>
-    <row r="7" spans="1:21" ht="40.049999999999997" customHeight="1">
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="31">
-        <v>1</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="S7" s="25"/>
-      <c r="T7" s="26"/>
-    </row>
-    <row r="8" spans="1:21" ht="40.049999999999997" customHeight="1">
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="31">
-        <v>2</v>
-      </c>
-      <c r="N8" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="O8" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="S8" s="25"/>
-      <c r="T8" s="26"/>
-    </row>
-    <row r="9" spans="1:21" ht="40.049999999999997" customHeight="1">
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="31">
-        <v>3</v>
-      </c>
-      <c r="N9" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="O9" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="26"/>
-    </row>
-    <row r="10" spans="1:21" ht="40.049999999999997" customHeight="1">
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="31">
-        <v>4</v>
-      </c>
-      <c r="N10" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="O10" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="S10" s="25"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="40.049999999999997" customHeight="1">
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="31">
-        <v>5</v>
-      </c>
-      <c r="N11" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="O11" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="S11" s="25"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="40.049999999999997" customHeight="1">
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="27" customHeight="1">
-      <c r="A13" s="6">
-        <v>5</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-    </row>
-    <row r="14" spans="1:21" s="8" customFormat="1" ht="7.2" customHeight="1">
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-    </row>
-    <row r="15" spans="1:21" ht="40.049999999999997" customHeight="1">
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="N15" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="O15" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="S15" s="35"/>
-      <c r="T15" s="34"/>
-    </row>
-    <row r="16" spans="1:21" ht="40.049999999999997" customHeight="1">
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="31">
-        <v>1</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="O16" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="S16" s="25"/>
-      <c r="T16" s="26"/>
-    </row>
-    <row r="17" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="31">
-        <v>2</v>
-      </c>
-      <c r="N17" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="O17" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="S17" s="25"/>
-      <c r="T17" s="26"/>
-    </row>
-    <row r="18" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="31">
-        <v>3</v>
-      </c>
-      <c r="N18" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="O18" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="S18" s="25"/>
-      <c r="T18" s="26"/>
-    </row>
-    <row r="19" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="7"/>
-    </row>
-    <row r="20" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="7"/>
-    </row>
-    <row r="21" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="7"/>
-    </row>
-    <row r="22" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="7"/>
-    </row>
-    <row r="23" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="B23" s="37"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="7"/>
-    </row>
-    <row r="24" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="U24" s="7"/>
-    </row>
-    <row r="25" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="U25" s="7"/>
-    </row>
-    <row r="26" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="B26" s="37"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="U26" s="7"/>
-    </row>
-    <row r="27" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="U27" s="7"/>
-    </row>
-    <row r="28" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="7"/>
-    </row>
-    <row r="29" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="B29" s="37"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
       <c r="U29" s="7"/>
     </row>
-    <row r="30" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="B30" s="37"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
+    <row r="30" spans="2:21" ht="40.15" customHeight="1">
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
       <c r="U30" s="7"/>
     </row>
-    <row r="31" spans="2:21" ht="40.049999999999997" customHeight="1">
-      <c r="B31" s="37"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
+    <row r="31" spans="2:21" ht="40.15" customHeight="1">
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
       <c r="S31" s="5"/>
       <c r="T31" s="1"/>
       <c r="U31" s="7"/>
     </row>
-    <row r="32" spans="2:21" ht="19.2" customHeight="1">
-      <c r="B32" s="37"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
+    <row r="32" spans="2:21" ht="19.149999999999999" customHeight="1">
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
       <c r="U32" s="7"/>
     </row>
     <row r="33" spans="2:21" ht="27" customHeight="1">
-      <c r="B33" s="37"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
       <c r="U33" s="7"/>
     </row>
-    <row r="34" spans="2:21" ht="19.2" customHeight="1">
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
+    <row r="34" spans="2:21" ht="19.149999999999999" customHeight="1">
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
       <c r="U34" s="7"/>
     </row>
-    <row r="35" spans="2:21" ht="19.2">
-      <c r="B35" s="37"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
+    <row r="35" spans="2:21" ht="17.25">
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
       <c r="U35" s="7"/>
     </row>
     <row r="36" spans="2:21">
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
       <c r="S36" s="5"/>
       <c r="T36" s="1"/>
       <c r="U36" s="7"/>
     </row>
     <row r="39" spans="2:21">
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
       <c r="S39" s="5"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="2:21" ht="17.399999999999999" customHeight="1"/>
-    <row r="41" spans="2:21" ht="17.399999999999999" customHeight="1"/>
-    <row r="42" spans="2:21" ht="17.399999999999999" customHeight="1"/>
-    <row r="43" spans="2:21" ht="17.399999999999999" customHeight="1"/>
-    <row r="44" spans="2:21" ht="17.399999999999999" customHeight="1">
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
+    <row r="40" spans="2:21" ht="17.45" customHeight="1"/>
+    <row r="41" spans="2:21" ht="17.45" customHeight="1"/>
+    <row r="42" spans="2:21" ht="17.45" customHeight="1"/>
+    <row r="43" spans="2:21" ht="17.45" customHeight="1"/>
+    <row r="44" spans="2:21" ht="17.45" customHeight="1">
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
       <c r="S44" s="5"/>
       <c r="T44" s="1"/>
     </row>
     <row r="47" spans="2:21">
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
       <c r="S47" s="5"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="2:21" ht="17.399999999999999" customHeight="1"/>
+    <row r="48" spans="2:21" ht="17.45" customHeight="1"/>
     <row r="52" spans="13:20">
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
       <c r="S52" s="5"/>
       <c r="T52" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C2:T2"/>
-    <mergeCell ref="C13:T13"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:T18"/>
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="P9:Q9"/>
@@ -9765,9 +9882,22 @@
     <mergeCell ref="R7:T7"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="R8:T8"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C2:T2"/>
+    <mergeCell ref="C13:T13"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:T11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>